--- a/9/1/1/6/Mensual 2009 a 2021 - Trimestral.xlsx
+++ b/9/1/1/6/Mensual 2009 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Serie</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>II-2021</t>
+  </si>
+  <si>
+    <t>III-2021</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1185,6 +1188,20 @@
         <v>421.5</v>
       </c>
     </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>4182.8</v>
+      </c>
+      <c r="C48">
+        <v>3797.3</v>
+      </c>
+      <c r="D48">
+        <v>385.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
